--- a/biology/Histoire de la zoologie et de la botanique/Hendrik_van_Rheede/Hendrik_van_Rheede.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hendrik_van_Rheede/Hendrik_van_Rheede.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hendrik Adriaan van Rheede tot Drakenstein (Amsterdam, 13 avril 1636-en mer au large de Bombay, 15 décembre 1691) est un explorateur, botaniste et administrateur colonial néerlandais.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il entre en 1657 dans la compagnie néerlandaise des Indes orientales et est envoyé à Ceylan (1665). Il part ensuite sur la côte de Malabar où il est nommé gouverneur (1670-1677). Il botanise alors à Java[1].
-Il est célèbre pour son Hortus malabaricus, encyclopédie botanique de la région Sud de l'Inde publiée entre 1678 et 1703 et contenant également des informations économiques et médicales[2]. Cet ouvrage constitue la principale source d'information sur la botanique indienne disponible en Europe à cette époque[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il entre en 1657 dans la compagnie néerlandaise des Indes orientales et est envoyé à Ceylan (1665). Il part ensuite sur la côte de Malabar où il est nommé gouverneur (1670-1677). Il botanise alors à Java.
+Il est célèbre pour son Hortus malabaricus, encyclopédie botanique de la région Sud de l'Inde publiée entre 1678 et 1703 et contenant également des informations économiques et médicales. Cet ouvrage constitue la principale source d'information sur la botanique indienne disponible en Europe à cette époque.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La légumineuse Entada rheedii a été nommée en son honneur.
 </t>
